--- a/formulasman.xlsx
+++ b/formulasman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosmi\vtcstuff\year3\semester2\Statistics\generalsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DEA73B-2FCB-400C-9F9A-96AD707F52FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFC9F99-8D17-4B06-B7C4-52E3CBA84A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="779" firstSheet="6" activeTab="12" xr2:uid="{39AF0160-09EB-474A-B9F4-D425E77E3081}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="779" firstSheet="6" activeTab="6" xr2:uid="{39AF0160-09EB-474A-B9F4-D425E77E3081}"/>
   </bookViews>
   <sheets>
     <sheet name="Scratch Sheet" sheetId="6" r:id="rId1"/>
@@ -50,8 +50,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="258">
   <si>
     <t>Median</t>
   </si>
@@ -546,9 +568,6 @@
   </si>
   <si>
     <t>Low #:</t>
-  </si>
-  <si>
-    <t>% of data</t>
   </si>
   <si>
     <t>High k-score:</t>
@@ -941,14 +960,21 @@
   <si>
     <t>Standard Score for Sample Mean (z2):</t>
   </si>
+  <si>
+    <t>% of data (decimal)</t>
+  </si>
+  <si>
+    <t>% of data (percent)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1040,7 +1066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1068,6 +1094,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2021,7 +2048,7 @@
         <v>8.3511956128385715E-5</v>
       </c>
       <c r="M32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2045,7 +2072,7 @@
         <v>1.0299807922500904E-3</v>
       </c>
       <c r="M33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N33">
         <v>3</v>
@@ -2070,7 +2097,7 @@
         <v>1.1134927483784762E-3</v>
       </c>
       <c r="M34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N34">
         <v>4</v>
@@ -2470,10 +2497,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2598,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2624,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
@@ -2769,7 +2796,7 @@
         <v>91</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2845,7 +2872,7 @@
         <v>9.1428358754234967E-6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J7">
         <f>(J6-J3)/(J4/SQRT(J5))</f>
@@ -2868,7 +2895,7 @@
         <v>0.5</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2948,7 +2975,7 @@
         <v>0.99999085716412461</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J14">
         <f>(J13-J10)/(J11/SQRT(J12))</f>
@@ -2963,7 +2990,7 @@
         <v>98</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="5:10">
@@ -3081,7 +3108,7 @@
         <v>159</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="5:10">
@@ -3200,7 +3227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E72933-EC54-4EC9-A264-DD2B0B4C216A}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -3215,21 +3242,21 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="8">
         <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" s="8">
         <v>9.6</v>
@@ -3237,28 +3264,28 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="8">
         <v>0.6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E3" s="8">
         <v>13.26</v>
       </c>
       <c r="H3" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>189</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3272,19 +3299,19 @@
         <v>0.84</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5">
         <f>B2-B3</f>
         <v>41.4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5">
         <f>(E3-E2)/2</f>
@@ -3300,12 +3327,12 @@
         <v>1.04</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6">
         <f>B2+B3</f>
@@ -3321,7 +3348,7 @@
         <v>1.28</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3335,7 +3362,7 @@
         <v>1.645</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3349,15 +3376,15 @@
         <v>1.75</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H9" s="14">
         <v>0.98</v>
@@ -3369,18 +3396,18 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" s="8">
         <v>1.44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="8">
         <v>0.8</v>
@@ -3395,18 +3422,18 @@
         <v>2.33</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" s="8">
         <v>2.7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11">
         <f>1-E10</f>
@@ -3415,13 +3442,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="8">
         <v>576</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="8">
         <v>1.5</v>
@@ -3429,7 +3456,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="D13" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E13" s="8">
         <v>164</v>
@@ -3437,7 +3464,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B14">
         <f>B10*(B11/SQRT(B12))</f>
@@ -3446,7 +3473,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="D15" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E15">
         <f>_xlfn.CONFIDENCE.NORM(E11,E12,E13)</f>
@@ -3455,21 +3482,21 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B18" s="8">
         <v>14.9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E18" s="8">
         <v>7.8</v>
@@ -3477,14 +3504,14 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B19">
         <f>B14</f>
         <v>0.16200000000000001</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E19">
         <f>E15</f>
@@ -3493,14 +3520,14 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21">
         <f>B18-B19</f>
         <v>14.738</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21">
         <f>E18-E19</f>
@@ -3509,14 +3536,14 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B22">
         <f>B18+B19</f>
         <v>15.062000000000001</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E22">
         <f>E18+E19</f>
@@ -3525,12 +3552,12 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B26" s="8">
         <v>1.645</v>
@@ -3538,7 +3565,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B27" s="8">
         <v>0.9</v>
@@ -3546,7 +3573,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" s="8">
         <v>0.08</v>
@@ -3554,7 +3581,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B30">
         <f>((B26*B27)/B28)^2</f>
@@ -3582,12 +3609,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25">
       <c r="A1" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" s="8">
         <v>63.4</v>
@@ -3595,7 +3622,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" s="8">
         <v>62.4</v>
@@ -3611,7 +3638,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="8">
         <v>89</v>
@@ -3619,7 +3646,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7">
         <f>(B2-B3)/(B4/SQRT(B5))</f>
@@ -3649,20 +3676,20 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E1">
         <f>CORREL(A:A, B:B)</f>
         <v>0.95546980208543819</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I1">
         <f>I2/SQRT((1-(I2^2))/(I3-2))</f>
@@ -3677,7 +3704,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I2" s="8">
         <v>-0.586619</v>
@@ -3691,14 +3718,14 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E3">
         <f>COUNT(A:A)</f>
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I3" s="8">
         <v>15</v>
@@ -3712,14 +3739,14 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E4">
         <f>COUNT(B:B)</f>
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I4" s="8">
         <f>I3-2</f>
@@ -3742,7 +3769,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I6">
         <f>I7/SQRT((1-(I7^2))/(I8-2))</f>
@@ -3751,7 +3778,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="H7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I7" s="8">
         <f>E1</f>
@@ -3760,7 +3787,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="H8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I8" s="8">
         <f>IF(E3=E4, E3, 0)</f>
@@ -3769,7 +3796,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="H9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I9" s="8">
         <f>I8-2</f>
@@ -3778,7 +3805,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="H12" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I12">
         <f>I13^2</f>
@@ -3787,7 +3814,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="H13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I13" s="8">
         <v>-0.65</v>
@@ -3795,7 +3822,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="H15" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I15">
         <f>I7^2</f>
@@ -3828,13 +3855,13 @@
       <c r="A1" s="16"/>
       <c r="B1"/>
       <c r="D1" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L1">
         <f>(L2-L3)/L4</f>
@@ -3849,21 +3876,21 @@
         <v>26.74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E2">
         <f>INTERCEPT(B:B, A:A)</f>
         <v>1.0621474376246205</v>
       </c>
       <c r="H2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I2">
         <f>I3+(I4*I5)</f>
         <v>59356.009999999995</v>
       </c>
       <c r="K2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L2" s="8">
         <v>175</v>
@@ -3877,20 +3904,20 @@
         <v>22.16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E3">
         <f>SLOPE(B:B, A:A)</f>
         <v>7.5069784986797408E-2</v>
       </c>
       <c r="H3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I3" s="8">
         <v>24466.41</v>
       </c>
       <c r="K3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L3" s="8">
         <v>47.81</v>
@@ -3904,13 +3931,13 @@
         <v>21.64</v>
       </c>
       <c r="H4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I4" s="8">
         <v>2180.6</v>
       </c>
       <c r="K4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L4" s="8">
         <v>0.47</v>
@@ -3924,7 +3951,7 @@
         <v>24.44</v>
       </c>
       <c r="H5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I5" s="8">
         <v>16</v>
@@ -3938,7 +3965,7 @@
         <v>27.29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -3949,7 +3976,7 @@
         <v>22.29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E7">
         <f>INTERCEPT(C16:W16, C15:W15)</f>
@@ -3964,29 +3991,29 @@
         <v>24.2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E8">
         <f>SLOPE(C16:W16, C15:W15)</f>
         <v>7.5108635863586348E-2</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="H9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I9">
         <f>I10+(I11*I12)</f>
         <v>25.459827558333778</v>
       </c>
       <c r="K9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L9">
         <f>L10+(L11*L12)</f>
@@ -3995,14 +4022,14 @@
     </row>
     <row r="10" spans="1:23">
       <c r="H10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I10">
         <f>E2</f>
         <v>1.0621474376246205</v>
       </c>
       <c r="K10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L10">
         <f>E7</f>
@@ -4011,14 +4038,14 @@
     </row>
     <row r="11" spans="1:23">
       <c r="H11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I11">
         <f>E3</f>
         <v>7.5069784986797408E-2</v>
       </c>
       <c r="K11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L11">
         <f>E8</f>
@@ -4027,13 +4054,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="H12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I12" s="8">
         <v>325</v>
       </c>
       <c r="K12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L12" s="8">
         <v>295</v>
@@ -4041,12 +4068,12 @@
     </row>
     <row r="14" spans="1:23">
       <c r="C14" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="C15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D15" s="8">
         <v>298</v>
@@ -4085,7 +4112,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="C16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D16" s="8">
         <v>22.91</v>
@@ -6267,10 +6294,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CAC135-F29D-4F60-A5CE-A01F3DDFEC4F}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6423,35 +6450,68 @@
       <c r="J12" t="s">
         <v>15</v>
       </c>
+      <c r="K12" s="8">
+        <v>3609</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="J13" t="s">
         <v>107</v>
       </c>
+      <c r="K13" s="8">
+        <v>540</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="J14" t="s">
         <v>163</v>
       </c>
+      <c r="K14" s="8">
+        <v>1989</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="J15" t="s">
         <v>164</v>
       </c>
+      <c r="K15" s="8">
+        <v>5229</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16">
+        <f>(K14-K12)/K13</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11">
+      <c r="J17" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="17" spans="10:10">
-      <c r="J17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10">
+      <c r="K17">
+        <f>(K15-K12)/K13</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11">
       <c r="J18" t="s">
-        <v>165</v>
+        <v>256</v>
+      </c>
+      <c r="K18" cm="1">
+        <f t="array" ref="K18">IF(ABS(K16)=ABS(K17), 1-(1/(K17^2)), NOT GOOD)</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11">
+      <c r="J19" t="s">
+        <v>257</v>
+      </c>
+      <c r="K19" s="17">
+        <f>K18</f>
+        <v>0.88888888888888884</v>
       </c>
     </row>
   </sheetData>
@@ -6482,7 +6542,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1">
         <f>1-B2</f>
@@ -6491,16 +6551,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="8"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -6508,13 +6568,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="8">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E7" s="8">
         <v>0.4</v>
@@ -6522,13 +6582,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="8">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E8" s="8">
         <v>0.35</v>
@@ -6536,13 +6596,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="8">
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E9">
         <f>E7+E8</f>
@@ -6551,7 +6611,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10">
         <f>(B7+B8)-B9</f>
@@ -6560,33 +6620,33 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B15" s="8">
         <v>0.06</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E15" s="8">
         <v>0.06</v>
       </c>
       <c r="G15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H15" s="8">
         <v>110</v>
@@ -6594,19 +6654,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="8">
         <v>0.06</v>
       </c>
       <c r="D16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E16" s="8">
         <v>0.06</v>
       </c>
       <c r="G16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H16" s="8">
         <v>152</v>
@@ -6614,21 +6674,21 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B17">
         <f>B15*B16</f>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E17">
         <f>E15*E16</f>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H17">
         <f>H15/H16</f>

--- a/formulasman.xlsx
+++ b/formulasman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosmi\vtcstuff\year3\semester2\Statistics\generalsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFC9F99-8D17-4B06-B7C4-52E3CBA84A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AA272B-48BE-4C3C-9382-AF69D98D138F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="779" firstSheet="6" activeTab="6" xr2:uid="{39AF0160-09EB-474A-B9F4-D425E77E3081}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="779" firstSheet="6" activeTab="7" xr2:uid="{39AF0160-09EB-474A-B9F4-D425E77E3081}"/>
   </bookViews>
   <sheets>
     <sheet name="Scratch Sheet" sheetId="6" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="262">
   <si>
     <t>Median</t>
   </si>
@@ -265,9 +265,6 @@
   </si>
   <si>
     <t>Discrete Random Variance and Deviation</t>
-  </si>
-  <si>
-    <t>Probability Total (should be 0):</t>
   </si>
   <si>
     <t>Distance from Expected Value</t>
@@ -966,15 +963,31 @@
   <si>
     <t>% of data (percent)</t>
   </si>
+  <si>
+    <t>Product of All Combinations:</t>
+  </si>
+  <si>
+    <t>Product * Permutations:</t>
+  </si>
+  <si>
+    <t>Probability Total (should be 1):</t>
+  </si>
+  <si>
+    <t>Fraction Reducer:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction: </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#\ ???/???"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1066,7 +1079,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1094,7 +1107,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1436,7 +1451,7 @@
         <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M1">
         <v>0</v>
@@ -1448,7 +1463,7 @@
         <v>45</v>
       </c>
       <c r="V1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W1">
         <v>45</v>
@@ -1460,7 +1475,7 @@
         <v>46</v>
       </c>
       <c r="AE1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF1">
         <v>46</v>
@@ -1477,7 +1492,7 @@
         <v>5.5</v>
       </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1489,7 +1504,7 @@
         <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W2">
         <v>50</v>
@@ -1501,7 +1516,7 @@
         <v>65</v>
       </c>
       <c r="AE2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF2">
         <v>68</v>
@@ -1518,7 +1533,7 @@
         <v>6.3</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -1530,7 +1545,7 @@
         <v>50</v>
       </c>
       <c r="V3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W3">
         <v>74.5</v>
@@ -1542,7 +1557,7 @@
         <v>68</v>
       </c>
       <c r="AE3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF3">
         <v>73</v>
@@ -1559,7 +1574,7 @@
         <v>6.4</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -1571,7 +1586,7 @@
         <v>56</v>
       </c>
       <c r="V4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W4">
         <v>86</v>
@@ -1583,7 +1598,7 @@
         <v>69</v>
       </c>
       <c r="AE4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF4">
         <v>81</v>
@@ -1600,7 +1615,7 @@
         <v>6.5</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -1609,7 +1624,7 @@
         <v>70</v>
       </c>
       <c r="V5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W5">
         <v>91</v>
@@ -1621,7 +1636,7 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF5">
         <v>85</v>
@@ -1638,7 +1653,7 @@
         <v>6.7</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -1664,7 +1679,7 @@
         <v>7.2</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -1690,7 +1705,7 @@
         <v>7.7</v>
       </c>
       <c r="L8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M8">
         <v>3</v>
@@ -1820,7 +1835,7 @@
         <v>84</v>
       </c>
       <c r="S16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z16">
         <v>1308</v>
@@ -1834,7 +1849,7 @@
         <v>84</v>
       </c>
       <c r="S17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z17">
         <v>1335</v>
@@ -1848,7 +1863,7 @@
         <v>88</v>
       </c>
       <c r="S18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z18">
         <v>1340</v>
@@ -1862,7 +1877,7 @@
         <v>89</v>
       </c>
       <c r="S19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z19">
         <v>1351</v>
@@ -1876,7 +1891,7 @@
         <v>89</v>
       </c>
       <c r="S20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z20">
         <v>1371</v>
@@ -1887,7 +1902,7 @@
         <v>20</v>
       </c>
       <c r="S21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z21">
         <v>1384</v>
@@ -1895,22 +1910,22 @@
     </row>
     <row r="22" spans="7:26">
       <c r="G22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" t="s">
         <v>121</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>122</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>123</v>
-      </c>
-      <c r="J22" t="s">
-        <v>124</v>
       </c>
       <c r="M22">
         <v>23</v>
       </c>
       <c r="S22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="7:26">
@@ -1918,7 +1933,7 @@
         <v>40984</v>
       </c>
       <c r="H23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I23">
         <v>35230</v>
@@ -1931,12 +1946,12 @@
         <v>23</v>
       </c>
       <c r="S23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="7:26">
       <c r="H24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I24">
         <v>27</v>
@@ -1951,7 +1966,7 @@
     </row>
     <row r="25" spans="7:26">
       <c r="H25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I25">
         <f>I23+I24</f>
@@ -1964,7 +1979,7 @@
     </row>
     <row r="26" spans="7:26">
       <c r="H26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I26">
         <v>105</v>
@@ -1976,7 +1991,7 @@
     </row>
     <row r="27" spans="7:26">
       <c r="H27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I27">
         <v>368</v>
@@ -1988,7 +2003,7 @@
     </row>
     <row r="28" spans="7:26">
       <c r="H28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I28">
         <f>I26+I27</f>
@@ -2001,7 +2016,7 @@
     </row>
     <row r="29" spans="7:26">
       <c r="H29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I29">
         <v>69</v>
@@ -2013,7 +2028,7 @@
     </row>
     <row r="30" spans="7:26">
       <c r="H30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I30">
         <v>84</v>
@@ -2025,7 +2040,7 @@
     </row>
     <row r="31" spans="7:26">
       <c r="H31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I31">
         <f>I29+I30</f>
@@ -2038,7 +2053,7 @@
     </row>
     <row r="32" spans="7:26">
       <c r="H32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I32">
         <v>3</v>
@@ -2048,7 +2063,7 @@
         <v>8.3511956128385715E-5</v>
       </c>
       <c r="M32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2062,7 +2077,7 @@
     </row>
     <row r="33" spans="8:16">
       <c r="H33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I33">
         <v>37</v>
@@ -2072,7 +2087,7 @@
         <v>1.0299807922500904E-3</v>
       </c>
       <c r="M33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N33">
         <v>3</v>
@@ -2086,7 +2101,7 @@
     </row>
     <row r="34" spans="8:16">
       <c r="H34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I34">
         <f>I32+I33</f>
@@ -2097,7 +2112,7 @@
         <v>1.1134927483784762E-3</v>
       </c>
       <c r="M34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N34">
         <v>4</v>
@@ -2111,7 +2126,7 @@
     </row>
     <row r="35" spans="8:16">
       <c r="H35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I35">
         <f>I25+I28+I31+I34</f>
@@ -2121,7 +2136,7 @@
     </row>
     <row r="36" spans="8:16">
       <c r="H36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I36">
         <f>SUM(I24,I27,I30,I33)</f>
@@ -2163,109 +2178,109 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <f>FACT(B3)/(FACT(B2)*FACT(B3-B2))</f>
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <f>B5*(B4^B2)*(1-B4)^(B3-B2)</f>
-        <v>0.16779029790599986</v>
+        <v>0.22876792454961015</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5">
         <f>B6</f>
-        <v>0.16779029790599986</v>
+        <v>0.22876792454961015</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <f>_xlfn.BINOM.DIST(B2, B3, B4, 0)</f>
-        <v>0.167790297906</v>
+        <v>0.22876792454960998</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <f>_xlfn.BINOM.DIST(B2, B3, B4, 1)</f>
-        <v>0.25281534785499998</v>
+        <v>0.22876792454960998</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="5">
         <f>B11</f>
-        <v>0.25281534785499998</v>
+        <v>0.22876792454960998</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13">
         <f>1-B11</f>
-        <v>0.74718465214500007</v>
+        <v>0.77123207545039008</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="5">
         <f>1-B12</f>
-        <v>0.74718465214500007</v>
+        <v>0.77123207545039008</v>
       </c>
     </row>
   </sheetData>
@@ -2276,10 +2291,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD38BDFE-D551-4CB2-B096-D9444070D586}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2289,296 +2304,298 @@
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="8">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="8">
-        <v>-0.6</v>
+        <v>-1.33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="8">
-        <v>183</v>
+        <v>550</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <f>_xlfn.NORM.DIST(B4,0, 1, TRUE)</f>
-        <v>0.27425311775007355</v>
+        <v>9.1759135650280807E-2</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="8">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="I5" t="s">
         <v>35</v>
       </c>
       <c r="J5">
         <f>(J2-J3)/J4</f>
-        <v>-0.59999999999999964</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>-3.5500000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="7">
         <f>B5</f>
-        <v>0.27425311775007355</v>
+        <v>9.1759135650280807E-2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7"/>
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <f>_xlfn.NORM.DIST(E4, E5, E6, TRUE)</f>
-        <v>0.34457825838967576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>0.94520070830044201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8"/>
       <c r="D8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="7">
         <f>E7</f>
-        <v>0.34457825838967576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>0.94520070830044201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <f>_xlfn.NORM.INV(0.95, 21.2, 5.2)</f>
+        <v>29.753238860147654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="8">
-        <v>-2.3310599999999999</v>
+        <v>-1.33</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="7">
         <f>_xlfn.NORM.DIST(B11*-1,0,1, TRUE)</f>
-        <v>0.99012490194657687</v>
+        <v>0.90824086434971918</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="8">
-        <v>194.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="7">
         <f>B12</f>
-        <v>0.99012490194657687</v>
+        <v>0.90824086434971918</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="7">
         <f>_xlfn.NORM.DIST(E11*-1, E12, E13, TRUE)</f>
-        <v>2.9573037407195732E-35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="7">
         <f>E14</f>
-        <v>2.9573037407195732E-35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="8">
-        <v>-0.84160000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="8">
-        <v>0.84160000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18">
         <v>0</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="8">
+        <v>106</v>
+      </c>
+      <c r="B19">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E19" s="8">
-        <f>I22</f>
-        <v>-0.59999999999999964</v>
+        <f>ROUND(I22, 2)</f>
+        <v>-1.67</v>
       </c>
       <c r="H19" t="s">
         <v>33</v>
       </c>
       <c r="I19" s="8">
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20">
         <f>_xlfn.NORM.DIST(B17, B18, B19, TRUE)</f>
-        <v>0.79999405535503321</v>
+        <v>0.84134474606854304</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="8">
-        <f>I29</f>
-        <v>-0.59999999999999964</v>
+        <f>ROUND(I29, 2)</f>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
         <v>34</v>
       </c>
       <c r="I20" s="8">
-        <v>2.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21">
         <f>_xlfn.NORM.DIST(B16, B18, B19, TRUE)</f>
-        <v>0.20000594464496677</v>
+        <v>0.30853753872598688</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
         <v>31</v>
       </c>
       <c r="I21" s="8">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22">
         <f>B20-B21</f>
-        <v>0.59998811071006641</v>
+        <v>0.53280720734255616</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="8">
+        <v>106</v>
+      </c>
+      <c r="E22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
@@ -2586,179 +2603,179 @@
       </c>
       <c r="I22">
         <f>(I19-I20)/I21</f>
-        <v>-0.59999999999999964</v>
+        <v>-1.6666666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="D23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E23">
         <f>_xlfn.NORM.DIST(E20, E21, E22, TRUE)</f>
-        <v>0.27425311775007366</v>
+        <v>0.84134474606854304</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24">
         <f>_xlfn.NORM.DIST(E19, E21, E22, TRUE)</f>
-        <v>0.27425311775007366</v>
+        <v>4.7459681802947323E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="8">
-        <v>-2.83</v>
+        <v>-2.0099999999999998</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25">
         <f>E23-E24</f>
-        <v>0</v>
+        <v>0.79388506426559569</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="8">
-        <v>2.83</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D26" s="1"/>
       <c r="H26" t="s">
         <v>33</v>
       </c>
       <c r="I26" s="8">
-        <v>2.2000000000000002</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27">
         <v>0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H27" t="s">
         <v>34</v>
       </c>
       <c r="I27" s="8">
-        <v>2.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="8">
+        <v>106</v>
+      </c>
+      <c r="B28">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="8">
-        <f>I22</f>
-        <v>-0.59999999999999964</v>
+        <f>ROUND(I22, 2)</f>
+        <v>-1.67</v>
       </c>
       <c r="H28" t="s">
         <v>31</v>
       </c>
       <c r="I28" s="8">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29">
         <f>_xlfn.NORM.DIST(B25, B27, B28, TRUE)</f>
-        <v>2.3274002067315515E-3</v>
+        <v>2.2215594429431475E-2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="8">
-        <f>I29</f>
-        <v>-0.59999999999999964</v>
+        <f>ROUND(I29, 2)</f>
+        <v>1</v>
       </c>
       <c r="H29" t="s">
         <v>35</v>
       </c>
       <c r="I29">
         <f>(I26-I27)/I28</f>
-        <v>-0.59999999999999964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30">
         <f>_xlfn.NORM.DIST(B26*-1, B27, B28, TRUE)</f>
-        <v>2.3274002067315515E-3</v>
+        <v>2.2215594429431475E-2</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31">
         <f>B29+B30</f>
-        <v>4.6548004134631029E-3</v>
+        <v>4.4431188858862949E-2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="8">
+        <v>106</v>
+      </c>
+      <c r="E31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="D32" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32">
         <f>_xlfn.NORM.DIST(E28, E30, E31, TRUE)</f>
-        <v>0.27425311775007366</v>
+        <v>4.7459681802947323E-2</v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E33">
         <f>_xlfn.NORM.DIST(E29*-1, E30, E31, TRUE)</f>
-        <v>0.72574688224992634</v>
+        <v>0.15865525393145699</v>
       </c>
     </row>
     <row r="34" spans="4:5">
       <c r="D34" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E34">
         <f>E32+E33</f>
-        <v>1</v>
+        <v>0.20611493573440431</v>
       </c>
     </row>
   </sheetData>
@@ -2784,29 +2801,29 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="8"/>
       <c r="E2" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="8"/>
       <c r="E3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J3" s="8">
         <v>2.5</v>
@@ -2814,17 +2831,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" t="e">
         <f>B2/SQRT(B3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J4" s="8">
         <v>0.5</v>
@@ -2832,14 +2849,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="E5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" s="8">
         <f>B12</f>
         <v>-4.2848570571257074</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J5" s="8">
         <v>51</v>
@@ -2847,14 +2864,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="E6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6">
         <f>_xlfn.NORM.DIST(F5,0, 1, TRUE)</f>
         <v>9.1428358754234967E-6</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J6" s="8">
         <v>2.2000000000000002</v>
@@ -2862,17 +2879,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7">
         <f>F6</f>
         <v>9.1428358754234967E-6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J7">
         <f>(J6-J3)/(J4/SQRT(J5))</f>
@@ -2881,7 +2898,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="8">
         <v>2.5</v>
@@ -2889,24 +2906,24 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" s="8">
         <v>0.5</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="8">
         <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J10" s="8">
         <v>2.5</v>
@@ -2914,16 +2931,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" s="8">
         <v>2.2000000000000002</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J11" s="8">
         <v>0.5</v>
@@ -2931,7 +2948,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12">
         <f>(B11-B8)/(B9/SQRT(B10))</f>
@@ -2945,7 +2962,7 @@
         <v>-4.2848570571257074</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J12" s="8">
         <v>51</v>
@@ -2953,14 +2970,14 @@
     </row>
     <row r="13" spans="1:10">
       <c r="E13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7">
         <f>_xlfn.NORM.DIST(F12*-1,0,1, TRUE)</f>
         <v>0.99999085716412461</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J13" s="8">
         <v>2.2000000000000002</v>
@@ -2968,14 +2985,14 @@
     </row>
     <row r="14" spans="1:10">
       <c r="E14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7">
         <f>F13</f>
         <v>0.99999085716412461</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J14">
         <f>(J13-J10)/(J11/SQRT(J12))</f>
@@ -2987,21 +3004,21 @@
     </row>
     <row r="16" spans="1:10">
       <c r="E16" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" s="8">
         <v>-0.98198099999999999</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J17" s="8">
         <f>J7</f>
@@ -3010,13 +3027,13 @@
     </row>
     <row r="18" spans="5:10">
       <c r="E18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="8">
         <v>0.98198099999999999</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J18" s="8">
         <f>J14</f>
@@ -3039,13 +3056,13 @@
     </row>
     <row r="20" spans="5:10">
       <c r="E20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="8">
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J20" s="8">
         <v>1</v>
@@ -3053,14 +3070,14 @@
     </row>
     <row r="21" spans="5:10">
       <c r="E21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21">
         <f>_xlfn.NORM.DIST(F18, F19, F20, TRUE)</f>
         <v>0.83694539566169956</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J21">
         <f>_xlfn.NORM.DIST(J18, J19, J20, TRUE)</f>
@@ -3069,14 +3086,14 @@
     </row>
     <row r="22" spans="5:10">
       <c r="E22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F22">
         <f>_xlfn.NORM.DIST(F17, F19, F20, TRUE)</f>
         <v>0.16305460433830044</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J22">
         <f>_xlfn.NORM.DIST(J17, J19, J20, TRUE)</f>
@@ -3085,14 +3102,14 @@
     </row>
     <row r="23" spans="5:10">
       <c r="E23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23">
         <f>F21-F22</f>
         <v>0.67389079132339913</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J23">
         <f>J21-J22</f>
@@ -3105,21 +3122,21 @@
     </row>
     <row r="25" spans="5:10">
       <c r="E25" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F26" s="8">
         <v>-1.351866</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J26" s="8">
         <f>J7</f>
@@ -3128,13 +3145,13 @@
     </row>
     <row r="27" spans="5:10">
       <c r="E27" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="8">
         <v>1.351866</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J27" s="8">
         <f>J14</f>
@@ -3157,13 +3174,13 @@
     </row>
     <row r="29" spans="5:10">
       <c r="E29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F29" s="8">
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J29" s="8">
         <v>1</v>
@@ -3171,14 +3188,14 @@
     </row>
     <row r="30" spans="5:10">
       <c r="E30" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F30">
         <f>_xlfn.NORM.DIST(F26, F28, F29, TRUE)</f>
         <v>8.8209092957793847E-2</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J30">
         <f>_xlfn.NORM.DIST(J26, J28, J29, TRUE)</f>
@@ -3187,14 +3204,14 @@
     </row>
     <row r="31" spans="5:10">
       <c r="E31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F31">
         <f>_xlfn.NORM.DIST(F27*-1, F28, F29, TRUE)</f>
         <v>8.8209092957793847E-2</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J31">
         <f>_xlfn.NORM.DIST(J27*-1, J28, J29, TRUE)</f>
@@ -3203,14 +3220,14 @@
     </row>
     <row r="32" spans="5:10">
       <c r="E32" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32">
         <f>F30+F31</f>
         <v>0.17641818591558769</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J32">
         <f>J30+J31</f>
@@ -3242,21 +3259,21 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="8">
         <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" s="8">
         <v>9.6</v>
@@ -3264,28 +3281,28 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" s="8">
         <v>0.6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" s="8">
         <v>13.26</v>
       </c>
       <c r="H3" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>188</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3299,19 +3316,19 @@
         <v>0.84</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5">
         <f>B2-B3</f>
         <v>41.4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5">
         <f>(E3-E2)/2</f>
@@ -3327,12 +3344,12 @@
         <v>1.04</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6">
         <f>B2+B3</f>
@@ -3348,7 +3365,7 @@
         <v>1.28</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3362,7 +3379,7 @@
         <v>1.645</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3376,15 +3393,15 @@
         <v>1.75</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H9" s="14">
         <v>0.98</v>
@@ -3396,18 +3413,18 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="8">
         <v>1.44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E10" s="8">
         <v>0.8</v>
@@ -3422,18 +3439,18 @@
         <v>2.33</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="8">
         <v>2.7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11">
         <f>1-E10</f>
@@ -3442,13 +3459,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12" s="8">
         <v>576</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E12" s="8">
         <v>1.5</v>
@@ -3456,7 +3473,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="D13" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" s="8">
         <v>164</v>
@@ -3464,7 +3481,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14">
         <f>B10*(B11/SQRT(B12))</f>
@@ -3473,7 +3490,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="D15" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15">
         <f>_xlfn.CONFIDENCE.NORM(E11,E12,E13)</f>
@@ -3482,21 +3499,21 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B18" s="8">
         <v>14.9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E18" s="8">
         <v>7.8</v>
@@ -3504,14 +3521,14 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19">
         <f>B14</f>
         <v>0.16200000000000001</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E19">
         <f>E15</f>
@@ -3520,14 +3537,14 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21">
         <f>B18-B19</f>
         <v>14.738</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E21">
         <f>E18-E19</f>
@@ -3536,14 +3553,14 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22">
         <f>B18+B19</f>
         <v>15.062000000000001</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E22">
         <f>E18+E19</f>
@@ -3552,12 +3569,12 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B26" s="8">
         <v>1.645</v>
@@ -3565,7 +3582,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B27" s="8">
         <v>0.9</v>
@@ -3573,7 +3590,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B28" s="8">
         <v>0.08</v>
@@ -3581,7 +3598,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30">
         <f>((B26*B27)/B28)^2</f>
@@ -3609,12 +3626,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25">
       <c r="A1" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="8">
         <v>63.4</v>
@@ -3622,7 +3639,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" s="8">
         <v>62.4</v>
@@ -3630,7 +3647,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" s="8">
         <v>4.7</v>
@@ -3638,7 +3655,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" s="8">
         <v>89</v>
@@ -3646,7 +3663,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7">
         <f>(B2-B3)/(B4/SQRT(B5))</f>
@@ -3676,20 +3693,20 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E1">
         <f>CORREL(A:A, B:B)</f>
         <v>0.95546980208543819</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I1">
         <f>I2/SQRT((1-(I2^2))/(I3-2))</f>
@@ -3704,7 +3721,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I2" s="8">
         <v>-0.586619</v>
@@ -3718,14 +3735,14 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E3">
         <f>COUNT(A:A)</f>
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I3" s="8">
         <v>15</v>
@@ -3739,14 +3756,14 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E4">
         <f>COUNT(B:B)</f>
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I4" s="8">
         <f>I3-2</f>
@@ -3769,7 +3786,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I6">
         <f>I7/SQRT((1-(I7^2))/(I8-2))</f>
@@ -3778,7 +3795,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="H7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I7" s="8">
         <f>E1</f>
@@ -3787,7 +3804,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="H8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I8" s="8">
         <f>IF(E3=E4, E3, 0)</f>
@@ -3796,7 +3813,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="H9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I9" s="8">
         <f>I8-2</f>
@@ -3805,7 +3822,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="H12" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I12">
         <f>I13^2</f>
@@ -3814,7 +3831,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="H13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I13" s="8">
         <v>-0.65</v>
@@ -3822,7 +3839,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="H15" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I15">
         <f>I7^2</f>
@@ -3855,13 +3872,13 @@
       <c r="A1" s="16"/>
       <c r="B1"/>
       <c r="D1" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L1">
         <f>(L2-L3)/L4</f>
@@ -3876,21 +3893,21 @@
         <v>26.74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E2">
         <f>INTERCEPT(B:B, A:A)</f>
         <v>1.0621474376246205</v>
       </c>
       <c r="H2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I2">
         <f>I3+(I4*I5)</f>
         <v>59356.009999999995</v>
       </c>
       <c r="K2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L2" s="8">
         <v>175</v>
@@ -3904,20 +3921,20 @@
         <v>22.16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E3">
         <f>SLOPE(B:B, A:A)</f>
         <v>7.5069784986797408E-2</v>
       </c>
       <c r="H3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I3" s="8">
         <v>24466.41</v>
       </c>
       <c r="K3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L3" s="8">
         <v>47.81</v>
@@ -3931,13 +3948,13 @@
         <v>21.64</v>
       </c>
       <c r="H4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I4" s="8">
         <v>2180.6</v>
       </c>
       <c r="K4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L4" s="8">
         <v>0.47</v>
@@ -3951,7 +3968,7 @@
         <v>24.44</v>
       </c>
       <c r="H5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I5" s="8">
         <v>16</v>
@@ -3965,7 +3982,7 @@
         <v>27.29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -3976,7 +3993,7 @@
         <v>22.29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E7">
         <f>INTERCEPT(C16:W16, C15:W15)</f>
@@ -3991,29 +4008,29 @@
         <v>24.2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E8">
         <f>SLOPE(C16:W16, C15:W15)</f>
         <v>7.5108635863586348E-2</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="H9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I9">
         <f>I10+(I11*I12)</f>
         <v>25.459827558333778</v>
       </c>
       <c r="K9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L9">
         <f>L10+(L11*L12)</f>
@@ -4022,14 +4039,14 @@
     </row>
     <row r="10" spans="1:23">
       <c r="H10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I10">
         <f>E2</f>
         <v>1.0621474376246205</v>
       </c>
       <c r="K10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L10">
         <f>E7</f>
@@ -4038,14 +4055,14 @@
     </row>
     <row r="11" spans="1:23">
       <c r="H11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I11">
         <f>E3</f>
         <v>7.5069784986797408E-2</v>
       </c>
       <c r="K11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L11">
         <f>E8</f>
@@ -4054,13 +4071,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="H12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I12" s="8">
         <v>325</v>
       </c>
       <c r="K12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L12" s="8">
         <v>295</v>
@@ -4068,12 +4085,12 @@
     </row>
     <row r="14" spans="1:23">
       <c r="C14" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="C15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D15" s="8">
         <v>298</v>
@@ -4112,7 +4129,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="C16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D16" s="8">
         <v>22.91</v>
@@ -4513,7 +4530,7 @@
         <v>1120</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <f t="shared" si="4"/>
@@ -4657,7 +4674,7 @@
         <v>1167</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q7">
         <f t="shared" si="4"/>
@@ -4754,7 +4771,7 @@
         <v>1292</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
@@ -4783,7 +4800,7 @@
         <v>1246</v>
       </c>
       <c r="Q12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V12">
         <f t="shared" si="1"/>
@@ -4986,7 +5003,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5001,7 +5018,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2" s="8">
         <v>50</v>
@@ -5019,7 +5036,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G3">
         <f>G2*0.25</f>
@@ -5038,7 +5055,7 @@
         <v>-9</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G4">
         <f>(G2+1)/2</f>
@@ -5050,7 +5067,7 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5">
         <f>G2*0.75</f>
@@ -5229,7 +5246,7 @@
         <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G1">
         <f>MAX(A:A)-MIN(A:A)</f>
@@ -5333,7 +5350,7 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4">
         <f>_xlfn.VAR.P(A:A)</f>
@@ -5401,7 +5418,7 @@
         <v>441</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G6">
         <f>_xlfn.STDEV.S(A:A)</f>
@@ -5415,7 +5432,7 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P6">
         <f>SQRT(P5)</f>
@@ -5435,7 +5452,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G7">
         <f>SQRT(G4)</f>
@@ -5462,7 +5479,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="D14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E14">
         <f>SUM(C:C)</f>
@@ -5480,7 +5497,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="D16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16">
         <f>E14/COUNT(A:A)</f>
@@ -5498,7 +5515,7 @@
     </row>
     <row r="18" spans="4:5">
       <c r="D18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E18">
         <f>SQRT(E16)</f>
@@ -6296,8 +6313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CAC135-F29D-4F60-A5CE-A01F3DDFEC4F}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6309,16 +6326,16 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -6329,19 +6346,19 @@
         <v>3.76</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H2" s="8">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K2" s="8">
-        <v>24.2</v>
+        <v>23.6</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N2" s="8">
         <v>88</v>
@@ -6358,19 +6375,19 @@
         <v>15</v>
       </c>
       <c r="H3" s="8">
-        <v>498</v>
+        <v>582</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K3" s="8">
-        <v>5.2</v>
+        <v>2.8</v>
       </c>
       <c r="M3" t="s">
         <v>34</v>
       </c>
       <c r="N3" s="8">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -6381,22 +6398,22 @@
         <v>0.41</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H4" s="8">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K4" s="8">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N4" s="8">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -6420,30 +6437,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H5">
         <f>(H2*H4)+H3</f>
-        <v>674.7</v>
+        <v>781.66000000000008</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
       </c>
       <c r="K5">
         <f>K2-(K4*K3)</f>
-        <v>17.7</v>
+        <v>17.3</v>
       </c>
       <c r="M5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N5">
         <f>(N2-N3)/N4</f>
-        <v>7.1428571428571432</v>
+        <v>11.486486486486486</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="J11" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -6456,7 +6473,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="J13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K13" s="8">
         <v>540</v>
@@ -6464,7 +6481,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="J14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K14" s="8">
         <v>1989</v>
@@ -6472,7 +6489,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="J15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K15" s="8">
         <v>5229</v>
@@ -6480,7 +6497,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="J16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K16">
         <f>(K14-K12)/K13</f>
@@ -6489,7 +6506,7 @@
     </row>
     <row r="17" spans="10:11">
       <c r="J17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K17">
         <f>(K15-K12)/K13</f>
@@ -6498,7 +6515,7 @@
     </row>
     <row r="18" spans="10:11">
       <c r="J18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K18" cm="1">
         <f t="array" ref="K18">IF(ABS(K16)=ABS(K17), 1-(1/(K17^2)), NOT GOOD)</f>
@@ -6507,7 +6524,7 @@
     </row>
     <row r="19" spans="10:11">
       <c r="J19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K19" s="17">
         <f>K18</f>
@@ -6522,45 +6539,55 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF8E52E-DEAF-46DA-813E-2B0159D63840}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1">
         <f>1-B2</f>
         <v>1</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="8"/>
+      <c r="D2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.25490196078431371</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -6568,13 +6595,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B7" s="8">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E7" s="8">
         <v>0.4</v>
@@ -6582,13 +6609,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B8" s="8">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E8" s="8">
         <v>0.35</v>
@@ -6596,13 +6623,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="8">
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9">
         <f>E7+E8</f>
@@ -6611,7 +6638,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10">
         <f>(B7+B8)-B9</f>
@@ -6620,79 +6647,79 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="8">
+        <v>201</v>
+      </c>
+      <c r="B15" s="18">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="18">
         <v>0.06</v>
       </c>
-      <c r="D15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.06</v>
-      </c>
       <c r="G15" t="s">
-        <v>213</v>
-      </c>
-      <c r="H15" s="8">
-        <v>110</v>
+        <v>212</v>
+      </c>
+      <c r="H15" s="9">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" s="8">
+        <v>202</v>
+      </c>
+      <c r="B16" s="18">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" s="18">
         <v>0.06</v>
       </c>
-      <c r="D16" t="s">
-        <v>212</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0.06</v>
-      </c>
       <c r="G16" t="s">
-        <v>202</v>
-      </c>
-      <c r="H16" s="8">
-        <v>152</v>
+        <v>201</v>
+      </c>
+      <c r="H16" s="9">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B17">
         <f>B15*B16</f>
-        <v>3.5999999999999999E-3</v>
+        <v>4.5248868778280547E-3</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E17">
         <f>E15*E16</f>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H17">
         <f>H15/H16</f>
-        <v>0.72368421052631582</v>
+        <v>0.24074074074074073</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6701,14 +6728,14 @@
       </c>
       <c r="B21">
         <f>FACT(B23)/(FACT(B24)*FACT(B23-B24))</f>
-        <v>364</v>
+        <v>2024</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E21">
         <f>FACT(E23)/(FACT(E23-E24))</f>
-        <v>3628800</v>
+        <v>362880</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6716,13 +6743,13 @@
         <v>54</v>
       </c>
       <c r="B23" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6736,7 +6763,91 @@
         <v>55</v>
       </c>
       <c r="E24" s="8">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27">
+        <f>FACT(B29)/(FACT(B30)*FACT(B29-B30))</f>
+        <v>2024</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="8">
+        <v>24</v>
+      </c>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="8">
+        <v>3</v>
+      </c>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33">
+        <f>FACT(B35)/(FACT(B36)*FACT(B35-B36))</f>
+        <v>286</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="8">
+        <v>13</v>
+      </c>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="8">
+        <v>3</v>
+      </c>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>257</v>
+      </c>
+      <c r="B39">
+        <f>B21*B27*B33</f>
+        <v>1171620736</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>258</v>
+      </c>
+      <c r="B40">
+        <f>B39*E21</f>
+        <v>425157732679680</v>
       </c>
     </row>
   </sheetData>
@@ -6749,8 +6860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4541A0C-9F98-490D-9597-C66703B1C9D0}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6799,25 +6910,25 @@
         <v>60</v>
       </c>
       <c r="M1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" t="s">
-        <v>66</v>
-      </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="8">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="B2" s="8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C2">
         <f>A2*B2</f>
-        <v>0.60000000000000009</v>
+        <v>-1.2</v>
       </c>
       <c r="D2">
         <f>SUM(B:B)</f>
@@ -6825,193 +6936,193 @@
       </c>
       <c r="E2">
         <f>SUM(C:C)</f>
-        <v>5.2000000000000011</v>
+        <v>-2.1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="H2">
         <f>SUM(K:K)</f>
         <v>1</v>
       </c>
       <c r="J2" s="8">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="K2" s="8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L2">
         <f>J2*K2</f>
-        <v>-1.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <f>J2-SUM(L:L)</f>
-        <v>-2</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="N2">
         <f>M2^2</f>
-        <v>4</v>
+        <v>5.2899999999999991</v>
       </c>
       <c r="O2">
         <f>N2*K2</f>
-        <v>0.8</v>
+        <v>0.52899999999999991</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="8">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="B3" s="8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C36" si="0">A3*B3</f>
-        <v>0.8</v>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <f>SUM(L:L)</f>
-        <v>-4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J3" s="8">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="K3" s="8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L20" si="1">J3*K3</f>
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M20" si="2">J3-SUM(L:L)</f>
-        <v>-1</v>
+        <v>-1.2999999999999998</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N20" si="3">M3^2</f>
-        <v>1</v>
+        <v>1.6899999999999995</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O20" si="4">N3*K3</f>
-        <v>0.2</v>
+        <v>0.50699999999999978</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="8">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="B4" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4">
         <f>SUM(O:O)</f>
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J4" s="8">
         <v>2</v>
       </c>
-      <c r="J4" s="8">
-        <v>-4</v>
-      </c>
       <c r="K4" s="8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>-0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.99999999999999E-2</v>
       </c>
       <c r="O4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.9999999999999906E-3</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="8">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="B5" s="8">
         <v>0.2</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>1.2000000000000002</v>
+        <v>-0.2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" s="1">
         <f>SQRT(H4)</f>
-        <v>1.4142135623730951</v>
+        <v>1.4177446878757824</v>
       </c>
       <c r="J5" s="8">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="K5" s="8">
         <v>0.2</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>-0.60000000000000009</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.70000000000000018</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.49000000000000027</v>
       </c>
       <c r="O5">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>9.8000000000000059E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B6" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>4</v>
+      </c>
+      <c r="K6" s="8">
         <v>0.3</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="J6" s="8">
-        <v>-2</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0.2</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>-0.4</v>
+        <v>1.2</v>
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2.8900000000000006</v>
       </c>
       <c r="O6">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>0.8670000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -7027,11 +7138,11 @@
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>5.2899999999999991</v>
       </c>
       <c r="O7">
         <f t="shared" si="4"/>
@@ -7051,11 +7162,11 @@
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>5.2899999999999991</v>
       </c>
       <c r="O8">
         <f t="shared" si="4"/>
@@ -7075,11 +7186,11 @@
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>5.2899999999999991</v>
       </c>
       <c r="O9">
         <f t="shared" si="4"/>
@@ -7099,11 +7210,11 @@
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>5.2899999999999991</v>
       </c>
       <c r="O10">
         <f t="shared" si="4"/>
@@ -7123,11 +7234,11 @@
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>5.2899999999999991</v>
       </c>
       <c r="O11">
         <f t="shared" si="4"/>
@@ -7147,11 +7258,11 @@
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>5.2899999999999991</v>
       </c>
       <c r="O12">
         <f t="shared" si="4"/>
@@ -7171,11 +7282,11 @@
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>5.2899999999999991</v>
       </c>
       <c r="O13">
         <f t="shared" si="4"/>
@@ -7195,11 +7306,11 @@
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>5.2899999999999991</v>
       </c>
       <c r="O14">
         <f t="shared" si="4"/>
@@ -7219,11 +7330,11 @@
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>5.2899999999999991</v>
       </c>
       <c r="O15">
         <f t="shared" si="4"/>
@@ -7243,11 +7354,11 @@
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="N16">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>5.2899999999999991</v>
       </c>
       <c r="O16">
         <f t="shared" si="4"/>
@@ -7267,11 +7378,11 @@
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>5.2899999999999991</v>
       </c>
       <c r="O17">
         <f t="shared" si="4"/>
@@ -7291,11 +7402,11 @@
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>5.2899999999999991</v>
       </c>
       <c r="O18">
         <f t="shared" si="4"/>
@@ -7315,11 +7426,11 @@
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="N19">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>5.2899999999999991</v>
       </c>
       <c r="O19">
         <f t="shared" si="4"/>
@@ -7339,11 +7450,11 @@
       </c>
       <c r="M20">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="N20">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>5.2899999999999991</v>
       </c>
       <c r="O20">
         <f t="shared" si="4"/>
